--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/D/20/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/D/20/seed2/result_data_RandomForest.xlsx
@@ -480,7 +480,7 @@
         <v>-12.16</v>
       </c>
       <c r="D3" t="n">
-        <v>-8.647599999999997</v>
+        <v>-8.718699999999995</v>
       </c>
     </row>
     <row r="4">
@@ -634,7 +634,7 @@
         <v>-11.3</v>
       </c>
       <c r="D14" t="n">
-        <v>-7.918100000000002</v>
+        <v>-8.171600000000002</v>
       </c>
     </row>
     <row r="15">
@@ -662,7 +662,7 @@
         <v>-13.59</v>
       </c>
       <c r="D16" t="n">
-        <v>-8.263099999999998</v>
+        <v>-8.265499999999999</v>
       </c>
     </row>
     <row r="17">
@@ -732,7 +732,7 @@
         <v>-13.13</v>
       </c>
       <c r="D21" t="n">
-        <v>-8.373899999999997</v>
+        <v>-8.416499999999997</v>
       </c>
     </row>
     <row r="22">
@@ -760,7 +760,7 @@
         <v>-12.89</v>
       </c>
       <c r="D23" t="n">
-        <v>-8.104099999999999</v>
+        <v>-7.943999999999999</v>
       </c>
     </row>
     <row r="24">
@@ -788,7 +788,7 @@
         <v>-11.07</v>
       </c>
       <c r="D25" t="n">
-        <v>-7.594099999999995</v>
+        <v>-7.641599999999999</v>
       </c>
     </row>
     <row r="26">
@@ -802,7 +802,7 @@
         <v>-10.59</v>
       </c>
       <c r="D26" t="n">
-        <v>-7.393900000000003</v>
+        <v>-7.361099999999998</v>
       </c>
     </row>
     <row r="27">
@@ -844,7 +844,7 @@
         <v>-11.02</v>
       </c>
       <c r="D29" t="n">
-        <v>-7.259200000000005</v>
+        <v>-7.299600000000003</v>
       </c>
     </row>
     <row r="30">
@@ -998,7 +998,7 @@
         <v>-12.94</v>
       </c>
       <c r="D40" t="n">
-        <v>-9.04939999999999</v>
+        <v>-8.83979999999999</v>
       </c>
     </row>
     <row r="41">
@@ -1180,7 +1180,7 @@
         <v>-12.98</v>
       </c>
       <c r="D53" t="n">
-        <v>-8.1792</v>
+        <v>-8.000499999999999</v>
       </c>
     </row>
     <row r="54">
@@ -1236,7 +1236,7 @@
         <v>-15.01</v>
       </c>
       <c r="D57" t="n">
-        <v>-8.234899999999996</v>
+        <v>-8.365999999999994</v>
       </c>
     </row>
     <row r="58">
@@ -1264,7 +1264,7 @@
         <v>-14.55</v>
       </c>
       <c r="D59" t="n">
-        <v>-8.243199999999993</v>
+        <v>-8.278699999999994</v>
       </c>
     </row>
     <row r="60">
@@ -1348,7 +1348,7 @@
         <v>-11.86</v>
       </c>
       <c r="D65" t="n">
-        <v>-7.868800000000005</v>
+        <v>-7.804400000000007</v>
       </c>
     </row>
     <row r="66">
@@ -1404,7 +1404,7 @@
         <v>-10.8</v>
       </c>
       <c r="D69" t="n">
-        <v>-7.644699999999997</v>
+        <v>-7.555799999999996</v>
       </c>
     </row>
     <row r="70">
@@ -1544,7 +1544,7 @@
         <v>-9.779999999999999</v>
       </c>
       <c r="D79" t="n">
-        <v>-7.419300000000008</v>
+        <v>-7.248400000000004</v>
       </c>
     </row>
     <row r="80">
@@ -1600,7 +1600,7 @@
         <v>-13.03</v>
       </c>
       <c r="D83" t="n">
-        <v>-9.273499999999999</v>
+        <v>-9.064199999999998</v>
       </c>
     </row>
     <row r="84">
@@ -1712,7 +1712,7 @@
         <v>-12.06</v>
       </c>
       <c r="D91" t="n">
-        <v>-8.161899999999997</v>
+        <v>-7.9793</v>
       </c>
     </row>
     <row r="92">
@@ -1740,7 +1740,7 @@
         <v>-10.09</v>
       </c>
       <c r="D93" t="n">
-        <v>-7.043599999999991</v>
+        <v>-6.911999999999991</v>
       </c>
     </row>
     <row r="94">
@@ -1838,7 +1838,7 @@
         <v>-13.95</v>
       </c>
       <c r="D100" t="n">
-        <v>-7.811499999999999</v>
+        <v>-7.8552</v>
       </c>
     </row>
     <row r="101">
@@ -1880,7 +1880,7 @@
         <v>-14.32</v>
       </c>
       <c r="D103" t="n">
-        <v>-7.675499999999999</v>
+        <v>-7.6767</v>
       </c>
     </row>
     <row r="104">
